--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,13 +34,22 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>50.00%</t>
+    <t>71.43%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>0.00%</t>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>57.14%</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>85.71%</t>
   </si>
 </sst>
 </file>
@@ -435,13 +444,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -452,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -472,13 +481,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -492,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -512,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -532,13 +541,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -552,13 +561,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -572,13 +581,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -592,13 +601,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
